--- a/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
+++ b/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>SERVER</t>
   </si>
@@ -45,6 +45,9 @@
   <si>
     <t>猪</t>
   </si>
+  <si>
+    <t>鹿</t>
+  </si>
 </sst>
 </file>
 
@@ -52,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,30 +69,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,21 +139,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,47 +153,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,23 +184,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +221,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +412,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,36 +436,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -481,22 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +488,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:G5"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -1038,18 +1041,158 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1001</v>
       </c>
       <c r="E5">
+        <v>510</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>10003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1001</v>
+      </c>
+      <c r="E6">
+        <v>520</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>10004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
+      </c>
+      <c r="E7">
+        <v>530</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>10005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1001</v>
+      </c>
+      <c r="E8">
         <v>600</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>10006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1001</v>
+      </c>
+      <c r="E9">
+        <v>610</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>10007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1001</v>
+      </c>
+      <c r="E10">
+        <v>620</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>10008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1001</v>
+      </c>
+      <c r="E11">
+        <v>630</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>10009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1001</v>
+      </c>
+      <c r="E12">
+        <v>640</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
+++ b/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13305" windowHeight="4140"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureResource" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>SERVER</t>
   </si>
@@ -48,6 +48,15 @@
   <si>
     <t>鹿</t>
   </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
 </sst>
 </file>
 
@@ -55,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,7 +86,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,25 +122,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +156,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,60 +177,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +242,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,55 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,97 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +463,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,30 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,15 +521,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:G12"/>
+  <dimension ref="A3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1196,6 +1205,146 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>10010</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1002</v>
+      </c>
+      <c r="E13">
+        <v>610</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>10011</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1002</v>
+      </c>
+      <c r="E14">
+        <v>620</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>10012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1002</v>
+      </c>
+      <c r="E15">
+        <v>630</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>10013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1002</v>
+      </c>
+      <c r="E16">
+        <v>610</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>10014</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1002</v>
+      </c>
+      <c r="E17">
+        <v>620</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>10015</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>1002</v>
+      </c>
+      <c r="E18">
+        <v>610</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>10016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1002</v>
+      </c>
+      <c r="E19">
+        <v>620</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
+++ b/mmorpg-server/src/main/resources/resource/map/CreatureResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>SERVER</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>马</t>
+  </si>
+  <si>
+    <t>村长</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>仓库管理员</t>
+  </si>
+  <si>
+    <t>水果摊主</t>
+  </si>
+  <si>
+    <t>图书管理员</t>
   </si>
 </sst>
 </file>
@@ -64,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,15 +93,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,15 +123,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,68 +198,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,24 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,6 +503,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:G19"/>
+  <dimension ref="A3:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1345,6 +1360,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>10101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1001</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>10102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1001</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>10103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1001</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>10104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1001</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
